--- a/AVXL.xlsx
+++ b/AVXL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E8396-96D5-4E67-98FB-EA88569125E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EABD454-375C-4441-942D-3CCDD8D4C95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="5175" windowWidth="20760" windowHeight="10725" xr2:uid="{274E451A-5C3F-C34C-8309-F345A53CB7D9}"/>
+    <workbookView xWindow="4020" yWindow="2300" windowWidth="23470" windowHeight="16810" xr2:uid="{274E451A-5C3F-C34C-8309-F345A53CB7D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
   <si>
     <t>Price</t>
   </si>
@@ -315,9 +315,6 @@
 24, primarily due to TEAEs (Supplemental Table 2, Supplemental Figure 2). 40 (41.7%) blarcamesine patients and 5 (17.9%) placebo patients dropped out on or before the ﬁrst analysis visit (Week 12).</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>Fake</t>
   </si>
   <si>
@@ -421,6 +418,30 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/3281057/</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>NOV</t>
   </si>
 </sst>
 </file>
@@ -610,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -660,6 +681,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -840,15 +866,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>60104</xdr:rowOff>
+      <xdr:colOff>227853</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>771160</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>39910</xdr:rowOff>
+      <xdr:colOff>517160</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>24035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -871,8 +897,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15739171" y="1618740"/>
-          <a:ext cx="12758398" cy="7824943"/>
+          <a:off x="15372603" y="1155479"/>
+          <a:ext cx="12671807" cy="7964931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -883,16 +909,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>447216</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>637716</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>77421</xdr:rowOff>
+      <xdr:rowOff>93296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>294409</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>103036</xdr:rowOff>
+      <xdr:rowOff>118911</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -915,8 +941,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15704534" y="9481194"/>
-          <a:ext cx="12316284" cy="9255113"/>
+          <a:off x="16607966" y="9665921"/>
+          <a:ext cx="12229693" cy="9391865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1382,22 +1408,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B19DC9-089E-0845-9EC6-A85530307FC2}">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
-    <col min="2" max="7" width="10.875" style="1"/>
+    <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="1"/>
+    <col min="9" max="10" width="7.08203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
@@ -1417,11 +1443,11 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>7.33</v>
+        <v>1.35</v>
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
@@ -1429,25 +1455,25 @@
         <v>9</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>85.064199000000002</v>
+        <v>85.893833999999998</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="F4" s="6"/>
       <c r="H4" s="1" t="s">
@@ -1455,24 +1481,28 @@
       </c>
       <c r="I4" s="3">
         <f>I2*I3</f>
-        <v>623.52057867000008</v>
+        <v>115.95667590000001</v>
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="F5" s="6"/>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="3">
-        <v>120.77500000000001</v>
+        <v>101.164</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="K5" s="2">
+        <f>+I5/I3</f>
+        <v>1.1777795365380943</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1485,59 +1515,59 @@
         <v>0</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="3">
         <f>I4-I5+I6</f>
-        <v>502.7455786700001</v>
+        <v>14.792675900000006</v>
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="C9" s="25"/>
       <c r="H9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I9" s="3">
-        <v>459.012</v>
+        <v>463.49400000000003</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I10" s="3">
-        <v>348.18200000000002</v>
+        <v>372.62099999999998</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>49</v>
       </c>
@@ -1545,37 +1575,845 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H18" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="33">
+        <v>0</v>
+      </c>
+      <c r="D22" s="34">
+        <f>AVERAGE(C22,E22)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E22" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G22" s="34">
+        <f t="shared" ref="G22:G34" si="0">IF(B22&lt;$I$2,0,B22-$I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" ref="H22:H27" si="1">+G22/D22-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="D23" s="34">
+        <f t="shared" ref="D23:D34" si="2">AVERAGE(C23,E23)</f>
+        <v>0.15</v>
+      </c>
+      <c r="E23" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="F23" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="34">
+        <f t="shared" si="0"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" si="1"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="J23" s="21">
+        <f>+C23/C39</f>
+        <v>0.6</v>
+      </c>
+      <c r="K23" s="21">
+        <f>+D23/D39</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="34">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="G24" s="34">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" si="1"/>
+        <v>3.1249999999999991</v>
+      </c>
+      <c r="J24" s="21">
+        <f>+C24/C40</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="K24" s="21">
+        <f>+D24/D40</f>
+        <v>0.57142857142857151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="D25" s="34">
+        <f t="shared" si="2"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E25" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="33">
+        <v>1</v>
+      </c>
+      <c r="G25" s="34">
+        <f t="shared" si="0"/>
+        <v>2.65</v>
+      </c>
+      <c r="H25" s="21">
+        <f t="shared" si="1"/>
+        <v>2.6551724137931036</v>
+      </c>
+      <c r="J25" s="21">
+        <f>+C25/C41</f>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="K25" s="21">
+        <f>+D25/D41</f>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>5</v>
+      </c>
+      <c r="C26" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="D26" s="34">
+        <f>AVERAGE(C26,E26)</f>
+        <v>1.25</v>
+      </c>
+      <c r="E26" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="F26" s="33">
+        <v>1.52</v>
+      </c>
+      <c r="G26" s="34">
+        <f t="shared" si="0"/>
+        <v>3.65</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="1"/>
+        <v>1.92</v>
+      </c>
+      <c r="J26" s="21">
+        <f>+C26/C42</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="K26" s="21">
+        <f>+D26/D42</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>6</v>
+      </c>
+      <c r="C27" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="D27" s="34">
+        <f t="shared" si="2"/>
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="E27" s="33">
+        <v>1.75</v>
+      </c>
+      <c r="F27" s="33">
+        <v>1.95</v>
+      </c>
+      <c r="G27" s="34">
+        <f>IF(B27&lt;$I$2,0,B27-$I$2)</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H27" s="21">
+        <f>+G27/D27-1</f>
+        <v>1.6956521739130435</v>
+      </c>
+      <c r="J27" s="21">
+        <f>+C27/C43</f>
+        <v>0.62962962962962954</v>
+      </c>
+      <c r="K27" s="21">
+        <f>+D27/D43</f>
+        <v>0.6216216216216216</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>7</v>
+      </c>
+      <c r="C28" s="33">
+        <v>2.4</v>
+      </c>
+      <c r="D28" s="34">
+        <f t="shared" si="2"/>
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="E28" s="33">
+        <v>2.65</v>
+      </c>
+      <c r="F28" s="33">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G28" s="34">
+        <f t="shared" si="0"/>
+        <v>5.65</v>
+      </c>
+      <c r="H28" s="21">
+        <f>+G28/D28-1</f>
+        <v>1.2376237623762378</v>
+      </c>
+      <c r="J28" s="21">
+        <f>+C28/C44</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="K28" s="21">
+        <f>+D28/D44</f>
+        <v>0.72142857142857142</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="33">
+        <v>3.1</v>
+      </c>
+      <c r="D29" s="34">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="E29" s="33">
+        <v>3.4</v>
+      </c>
+      <c r="F29" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="G29" s="34">
+        <f t="shared" si="0"/>
+        <v>6.65</v>
+      </c>
+      <c r="H29" s="21">
+        <f t="shared" ref="H29:H34" si="3">+G29/D29-1</f>
+        <v>1.0461538461538464</v>
+      </c>
+      <c r="J29" s="21">
+        <f>+C29/C45</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="K29" s="21">
+        <f>+D29/D45</f>
+        <v>0.77380952380952372</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>9</v>
+      </c>
+      <c r="C30" s="33">
+        <v>3.8</v>
+      </c>
+      <c r="D30" s="34">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="F30" s="33">
+        <v>3.9</v>
+      </c>
+      <c r="G30" s="34">
+        <f t="shared" si="0"/>
+        <v>7.65</v>
+      </c>
+      <c r="H30" s="21">
+        <f t="shared" si="3"/>
+        <v>0.91250000000000009</v>
+      </c>
+      <c r="J30" s="21">
+        <f>+C30/C46</f>
+        <v>0.88372093023255816</v>
+      </c>
+      <c r="K30" s="21">
+        <f>+D30/D46</f>
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>10</v>
+      </c>
+      <c r="C31" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="D31" s="34">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E31" s="33">
+        <v>5</v>
+      </c>
+      <c r="F31" s="33">
+        <v>4.7</v>
+      </c>
+      <c r="G31" s="34">
+        <f t="shared" si="0"/>
+        <v>8.65</v>
+      </c>
+      <c r="H31" s="21">
+        <f t="shared" si="3"/>
+        <v>0.88043478260869579</v>
+      </c>
+      <c r="J31" s="21">
+        <f>+C31/C47</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="K31" s="21">
+        <f>+D31/D47</f>
+        <v>0.85981308411214952</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>11</v>
+      </c>
+      <c r="C32" s="33">
+        <v>5.3</v>
+      </c>
+      <c r="D32" s="34">
+        <f t="shared" si="2"/>
+        <v>5.55</v>
+      </c>
+      <c r="E32" s="33">
+        <v>5.8</v>
+      </c>
+      <c r="F32" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="G32" s="34">
+        <f t="shared" si="0"/>
+        <v>9.65</v>
+      </c>
+      <c r="H32" s="21">
+        <f t="shared" si="3"/>
+        <v>0.73873873873873896</v>
+      </c>
+      <c r="J32" s="21">
+        <f>+C32/C48</f>
+        <v>0.94642857142857151</v>
+      </c>
+      <c r="K32" s="21">
+        <f>+D32/D48</f>
+        <v>0.88095238095238093</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>12</v>
+      </c>
+      <c r="C33" s="33">
+        <v>6.1</v>
+      </c>
+      <c r="D33" s="34">
+        <f t="shared" si="2"/>
+        <v>7.35</v>
+      </c>
+      <c r="E33" s="33">
+        <v>8.6</v>
+      </c>
+      <c r="F33" s="33">
+        <v>3.8</v>
+      </c>
+      <c r="G33" s="34">
+        <f t="shared" si="0"/>
+        <v>10.65</v>
+      </c>
+      <c r="H33" s="21">
+        <f t="shared" si="3"/>
+        <v>0.44897959183673475</v>
+      </c>
+      <c r="J33" s="21">
+        <f>+C33/C49</f>
+        <v>0.98387096774193539</v>
+      </c>
+      <c r="K33" s="21">
+        <f>+D33/D49</f>
+        <v>1.0425531914893615</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>13</v>
+      </c>
+      <c r="C34" s="33">
+        <v>6.9</v>
+      </c>
+      <c r="D34" s="34">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E34" s="33">
+        <v>9.1</v>
+      </c>
+      <c r="F34" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="G34" s="34">
+        <f t="shared" si="0"/>
+        <v>11.65</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" si="3"/>
+        <v>0.45625000000000004</v>
+      </c>
+      <c r="J34" s="21">
+        <f>+C34/C50</f>
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="K34" s="21">
+        <f>+D34/D50</f>
+        <v>1.0191082802547771</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="D38" s="34">
+        <f>AVERAGE(C38,E38)</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="E38" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G38" s="34">
+        <f t="shared" ref="G38:G50" si="4">IF(B38&lt;$I$2,0,B38-$I$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D39" s="34">
+        <f t="shared" ref="D39:D50" si="5">AVERAGE(C39,E39)</f>
+        <v>0.3</v>
+      </c>
+      <c r="E39" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="F39" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G39" s="34">
+        <f t="shared" si="4"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="H39" s="21">
+        <f>G39/D39-1</f>
+        <v>1.1666666666666665</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="33">
+        <v>0.65</v>
+      </c>
+      <c r="D40" s="34">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="E40" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="F40" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="G40" s="34">
+        <f>IF(B40&lt;$I$2,0,B40-$I$2)</f>
+        <v>1.65</v>
+      </c>
+      <c r="H40" s="21">
+        <f t="shared" ref="H40:H50" si="6">G40/D40-1</f>
+        <v>1.3571428571428572</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="33">
+        <v>1.35</v>
+      </c>
+      <c r="D41" s="34">
+        <f t="shared" si="5"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="E41" s="33">
+        <v>1.55</v>
+      </c>
+      <c r="F41" s="33">
+        <v>1</v>
+      </c>
+      <c r="G41" s="34">
+        <f t="shared" si="4"/>
+        <v>2.65</v>
+      </c>
+      <c r="H41" s="35">
+        <f t="shared" si="6"/>
+        <v>0.82758620689655138</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="33">
+        <v>1.95</v>
+      </c>
+      <c r="D42" s="34">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="33">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F42" s="33">
+        <v>1.52</v>
+      </c>
+      <c r="G42" s="34">
+        <f t="shared" si="4"/>
+        <v>3.65</v>
+      </c>
+      <c r="H42" s="21">
+        <f t="shared" si="6"/>
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" s="33">
+        <v>2.7</v>
+      </c>
+      <c r="D43" s="34">
+        <f t="shared" si="5"/>
+        <v>2.7750000000000004</v>
+      </c>
+      <c r="E43" s="33">
+        <v>2.85</v>
+      </c>
+      <c r="F43" s="33">
+        <v>1.95</v>
+      </c>
+      <c r="G43" s="34">
+        <f t="shared" si="4"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H43" s="21">
+        <f t="shared" si="6"/>
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>7</v>
+      </c>
+      <c r="C44" s="33">
+        <v>3.4</v>
+      </c>
+      <c r="D44" s="34">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="E44" s="33">
+        <v>3.6</v>
+      </c>
+      <c r="F44" s="33">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G44" s="34">
+        <f t="shared" si="4"/>
+        <v>5.65</v>
+      </c>
+      <c r="H44" s="21">
+        <f t="shared" si="6"/>
+        <v>0.61428571428571432</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>8</v>
+      </c>
+      <c r="C45" s="33">
+        <v>4</v>
+      </c>
+      <c r="D45" s="34">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+      <c r="E45" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F45" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="G45" s="34">
+        <f t="shared" si="4"/>
+        <v>6.65</v>
+      </c>
+      <c r="H45" s="21">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>9</v>
+      </c>
+      <c r="C46" s="33">
+        <v>4.3</v>
+      </c>
+      <c r="D46" s="34">
+        <f t="shared" si="5"/>
+        <v>4.75</v>
+      </c>
+      <c r="E46" s="33">
+        <v>5.2</v>
+      </c>
+      <c r="F46" s="33">
+        <v>3.9</v>
+      </c>
+      <c r="G46" s="34">
+        <f t="shared" si="4"/>
+        <v>7.65</v>
+      </c>
+      <c r="H46" s="21">
+        <f t="shared" si="6"/>
+        <v>0.61052631578947381</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>10</v>
+      </c>
+      <c r="C47" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="D47" s="34">
+        <f t="shared" si="5"/>
+        <v>5.35</v>
+      </c>
+      <c r="E47" s="33">
+        <v>6.2</v>
+      </c>
+      <c r="F47" s="33">
+        <v>4.7</v>
+      </c>
+      <c r="G47" s="34">
+        <f t="shared" si="4"/>
+        <v>8.65</v>
+      </c>
+      <c r="H47" s="21">
+        <f t="shared" si="6"/>
+        <v>0.61682242990654212</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>11</v>
+      </c>
+      <c r="C48" s="33">
+        <v>5.6</v>
+      </c>
+      <c r="D48" s="34">
+        <f t="shared" si="5"/>
+        <v>6.3</v>
+      </c>
+      <c r="E48" s="33">
+        <v>7</v>
+      </c>
+      <c r="F48" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="G48" s="34">
+        <f t="shared" si="4"/>
+        <v>9.65</v>
+      </c>
+      <c r="H48" s="21">
+        <f t="shared" si="6"/>
+        <v>0.53174603174603186</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>12</v>
+      </c>
+      <c r="C49" s="33">
+        <v>6.2</v>
+      </c>
+      <c r="D49" s="34">
+        <f t="shared" si="5"/>
+        <v>7.0500000000000007</v>
+      </c>
+      <c r="E49" s="33">
+        <v>7.9</v>
+      </c>
+      <c r="F49" s="33">
+        <v>3.8</v>
+      </c>
+      <c r="G49" s="34">
+        <f t="shared" si="4"/>
+        <v>10.65</v>
+      </c>
+      <c r="H49" s="21">
+        <f t="shared" si="6"/>
+        <v>0.51063829787234027</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>13</v>
+      </c>
+      <c r="C50" s="33">
+        <v>7</v>
+      </c>
+      <c r="D50" s="34">
+        <f t="shared" si="5"/>
+        <v>7.85</v>
+      </c>
+      <c r="E50" s="33">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F50" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="G50" s="34">
+        <f t="shared" si="4"/>
+        <v>11.65</v>
+      </c>
+      <c r="H50" s="21">
+        <f t="shared" si="6"/>
+        <v>0.48407643312101922</v>
       </c>
     </row>
   </sheetData>
@@ -1590,31 +2428,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB2C90A-EC98-3E4F-99A8-2768003AD1EE}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="1"/>
+    <col min="10" max="10" width="8.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1622,7 +2460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1630,7 +2468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1638,7 +2476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1646,12 +2484,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="15" t="s">
         <v>76</v>
       </c>
@@ -1659,7 +2497,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="22" t="s">
         <v>83</v>
       </c>
@@ -1667,33 +2505,33 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="15"/>
       <c r="F13" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="22" t="s">
         <v>87</v>
       </c>
@@ -1701,7 +2539,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1709,7 +2547,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C17" s="15" t="s">
         <v>88</v>
       </c>
@@ -1717,12 +2555,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F18" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="16" t="s">
         <v>23</v>
       </c>
@@ -1730,28 +2568,28 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="17">
         <f>191/298</f>
         <v>0.64093959731543626</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C24" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="C43" s="15" t="s">
         <v>27</v>
       </c>
@@ -1768,7 +2606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B44" s="20">
         <v>30.25</v>
       </c>
@@ -1796,7 +2634,7 @@
         <v>4.0799999999999983</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="20">
         <v>28.75</v>
       </c>
@@ -1824,41 +2662,41 @@
         <v>2.7399999999999984</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I47" s="1">
         <f>I44-I45</f>
         <v>1.3399999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="16" x14ac:dyDescent="0.4">
       <c r="C48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B49" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>50</v>
       </c>
@@ -1866,7 +2704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="24" t="s">
         <v>30</v>
       </c>
@@ -1874,7 +2712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>53</v>
       </c>
@@ -1882,124 +2720,124 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B107" s="1" t="s">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="27">
         <v>42786</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="1" t="s">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="1" t="s">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="27">
         <v>45020</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="1" t="s">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="27">
         <v>45773</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="27">
         <v>39099</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2019,135 +2857,135 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="39.125" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
         <v>101</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
       </c>
       <c r="G3" s="28">
         <v>42786</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>106</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
       </c>
       <c r="E8" s="28">
         <v>45020</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>110</v>
-      </c>
-      <c r="D12" t="s">
-        <v>111</v>
       </c>
       <c r="E12" s="28">
         <v>45773</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>113</v>
       </c>
       <c r="C16" s="28">
         <v>39099</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.4">
+      <c r="B21" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="22" spans="2:5" ht="117" x14ac:dyDescent="0.4">
+      <c r="B22" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="B23" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="65" x14ac:dyDescent="0.4">
+      <c r="B24" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="31"/>
       <c r="E25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E27" s="32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="30"/>
     </row>
   </sheetData>
@@ -2165,18 +3003,18 @@
   <sheetViews>
     <sheetView zoomScale="162" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
@@ -2184,7 +3022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
@@ -2192,22 +3030,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
@@ -2215,17 +3053,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2233,7 +3071,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2241,32 +3079,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C16" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
